--- a/test/Book1.xlsx
+++ b/test/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\eclipsews\excelreader\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D61803-D020-47C9-B489-0964015FB23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3052E279-86E2-41AA-A4EF-BC4C34194215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{23F3D242-C105-4EDD-9EDE-1C7CDC53CF44}"/>
   </bookViews>
@@ -35,11 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>C-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>C-2</t>
     <phoneticPr fontId="1"/>
@@ -105,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,13 +117,48 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,8 +175,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -154,6 +197,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -470,19 +518,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -490,16 +538,17 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>D2</f>
+        <v>B-1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -507,16 +556,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -524,20 +573,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>